--- a/myapp/files/9_MethodComparePercent/Scenario 346.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 346.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.51085706153718</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.71898533021833</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>13782</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.7240491917982</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.20967741935484</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>152</v>
+        <v>20232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.199260638158412</v>
+        <v>3.99890895722401</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.27272727272727</v>
+        <v>2.82258064516129</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2470</v>
+        <v>29893</v>
       </c>
       <c r="F6" t="n">
-        <v>3.2379853700742</v>
+        <v>5.90843146788737</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.27272727272727</v>
+        <v>3.2258064516129</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.249042372780855</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2095</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.414082357917373</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.61290322580645</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>10142</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.00459344820907</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.41935483870968</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1558</v>
+        <v>20878</v>
       </c>
       <c r="F10" t="n">
-        <v>2.04242154112373</v>
+        <v>4.1265925864434</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>2.27272727272727</v>
+        <v>4.83870967741935</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5271</v>
+        <v>42531</v>
       </c>
       <c r="F11" t="n">
-        <v>6.90988699824336</v>
+        <v>8.4063659974147</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -935,10 +935,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>6.81818181818182</v>
+        <v>6.45161290322581</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3870</v>
+        <v>6257</v>
       </c>
       <c r="F13" t="n">
-        <v>5.07328072153326</v>
+        <v>1.23671279880143</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>4.54545454545455</v>
+        <v>2.01612903225806</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>5103</v>
+        <v>24712</v>
       </c>
       <c r="F14" t="n">
-        <v>6.68965155606827</v>
+        <v>4.88439294933371</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1049,10 +1049,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>6.81818181818182</v>
+        <v>4.43548387096774</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5684</v>
+        <v>34174</v>
       </c>
       <c r="F15" t="n">
-        <v>7.45129912692378</v>
+        <v>6.75458257731184</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J15" t="n">
-        <v>6.81818181818182</v>
+        <v>7.66129032258065</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8034</v>
+        <v>60849</v>
       </c>
       <c r="F16" t="n">
-        <v>10.5319734668729</v>
+        <v>12.026967731224</v>
       </c>
       <c r="G16" t="n">
         <v>7</v>
@@ -1125,10 +1125,10 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J16" t="n">
-        <v>9.09090909090909</v>
+        <v>11.2903225806452</v>
       </c>
       <c r="K16" t="n">
         <v>13</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.11780099537888</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.806451612903226</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>3961</v>
+        <v>16762</v>
       </c>
       <c r="F19" t="n">
-        <v>5.1925749193781</v>
+        <v>3.31305416869261</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>8.45070422535211</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>6.81818181818182</v>
+        <v>4.03225806451613</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>7335</v>
+        <v>40648</v>
       </c>
       <c r="F20" t="n">
-        <v>9.61563671639443</v>
+        <v>8.03418600698109</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
@@ -1277,10 +1277,10 @@
         <v>23.943661971831</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>9.09090909090909</v>
+        <v>11.2903225806452</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>188</v>
+        <v>63683</v>
       </c>
       <c r="F21" t="n">
-        <v>0.246453947195931</v>
+        <v>12.5871154173041</v>
       </c>
       <c r="G21" t="n">
         <v>15</v>
@@ -1315,16 +1315,16 @@
         <v>21.1267605633803</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>2.27272727272727</v>
+        <v>12.9032258064516</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>14.0845070422535</v>
+        <v>12.6760563380282</v>
       </c>
     </row>
     <row r="22">
@@ -1344,7 +1344,7 @@
         <v>2279</v>
       </c>
       <c r="F22" t="n">
-        <v>2.98759864712514</v>
+        <v>0.45045045045045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.27272727272727</v>
+        <v>0.403225806451613</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>3483</v>
       </c>
       <c r="F23" t="n">
-        <v>4.56595264937993</v>
+        <v>0.688424273329934</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.27272727272727</v>
+        <v>0.403225806451613</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>4783</v>
+        <v>6752</v>
       </c>
       <c r="F24" t="n">
-        <v>6.27015547573477</v>
+        <v>1.33455087382248</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>6.81818181818182</v>
+        <v>2.01612903225806</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>10592</v>
+        <v>29354</v>
       </c>
       <c r="F25" t="n">
-        <v>13.8853202590388</v>
+        <v>5.80189667508667</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J25" t="n">
-        <v>15.9090909090909</v>
+        <v>8.46774193548387</v>
       </c>
       <c r="K25" t="n">
         <v>6</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>11519</v>
+        <v>59235</v>
       </c>
       <c r="F26" t="n">
-        <v>15.1005479667549</v>
+        <v>11.7079563108523</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1505,10 +1505,10 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J26" t="n">
-        <v>13.6363636363636</v>
+        <v>9.2741935483871</v>
       </c>
       <c r="K26" t="n">
         <v>9</v>
